--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.668329</v>
       </c>
       <c r="I2">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J2">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1957445</v>
+        <v>1.8204705</v>
       </c>
       <c r="N2">
-        <v>2.391489</v>
+        <v>3.640941</v>
       </c>
       <c r="O2">
-        <v>0.02245450427972709</v>
+        <v>0.03538588667457486</v>
       </c>
       <c r="P2">
-        <v>0.01677563808395307</v>
+        <v>0.02629074940840162</v>
       </c>
       <c r="Q2">
-        <v>0.2663835753135</v>
+        <v>0.4055577429315</v>
       </c>
       <c r="R2">
-        <v>1.598301451881</v>
+        <v>2.433346457589</v>
       </c>
       <c r="S2">
-        <v>0.01177107492425176</v>
+        <v>0.009430647634496506</v>
       </c>
       <c r="T2">
-        <v>0.009271661513292066</v>
+        <v>0.008570980624478738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.668329</v>
       </c>
       <c r="I3">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J3">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>103.562525</v>
       </c>
       <c r="O3">
-        <v>0.648255866486484</v>
+        <v>0.6710081768024303</v>
       </c>
       <c r="P3">
-        <v>0.7264626508674478</v>
+        <v>0.7478111820203425</v>
       </c>
       <c r="Q3">
         <v>7.690426530080554</v>
@@ -641,10 +641,10 @@
         <v>69.21383877072499</v>
       </c>
       <c r="S3">
-        <v>0.339827959657406</v>
+        <v>0.1788295354440396</v>
       </c>
       <c r="T3">
-        <v>0.401505788762502</v>
+        <v>0.2437920293674341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,40 +673,40 @@
         <v>0.668329</v>
       </c>
       <c r="I4">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J4">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2930826666666667</v>
+        <v>0.327471</v>
       </c>
       <c r="N4">
-        <v>0.879248</v>
+        <v>0.982413</v>
       </c>
       <c r="O4">
-        <v>0.005503705844334215</v>
+        <v>0.006365305944375207</v>
       </c>
       <c r="P4">
-        <v>0.006167683076961496</v>
+        <v>0.007093873259290952</v>
       </c>
       <c r="Q4">
-        <v>0.06529188184355555</v>
+        <v>0.07295278865300001</v>
       </c>
       <c r="R4">
-        <v>0.5876269365919999</v>
+        <v>0.656575097877</v>
       </c>
       <c r="S4">
-        <v>0.002885146474295166</v>
+        <v>0.001696409588354333</v>
       </c>
       <c r="T4">
-        <v>0.003408792531447572</v>
+        <v>0.002312655653644493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>0.668329</v>
       </c>
       <c r="I5">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J5">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0026265</v>
+        <v>14.0306905</v>
       </c>
       <c r="N5">
-        <v>32.005253</v>
+        <v>28.061381</v>
       </c>
       <c r="O5">
-        <v>0.3005082149498693</v>
+        <v>0.2727253333679585</v>
       </c>
       <c r="P5">
-        <v>0.2245080538164103</v>
+        <v>0.2026274899606125</v>
       </c>
       <c r="Q5">
-        <v>3.565006455372833</v>
+        <v>3.125705783724833</v>
       </c>
       <c r="R5">
-        <v>21.390038732237</v>
+        <v>18.754234702349</v>
       </c>
       <c r="S5">
-        <v>0.1575320777275719</v>
+        <v>0.07268368159449858</v>
       </c>
       <c r="T5">
-        <v>0.1240824743343061</v>
+        <v>0.06605807477987581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +797,40 @@
         <v>0.668329</v>
       </c>
       <c r="I6">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J6">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7966500000000001</v>
+        <v>0.1418926666666667</v>
       </c>
       <c r="N6">
-        <v>2.38995</v>
+        <v>0.425678</v>
       </c>
       <c r="O6">
-        <v>0.01496003605656943</v>
+        <v>0.002758077004060155</v>
       </c>
       <c r="P6">
-        <v>0.01676484242191524</v>
+        <v>0.003073764069966963</v>
       </c>
       <c r="Q6">
-        <v>0.17747476595</v>
+        <v>0.03161032800688889</v>
       </c>
       <c r="R6">
-        <v>1.59727289355</v>
+        <v>0.284492952062</v>
       </c>
       <c r="S6">
-        <v>0.007842333239588526</v>
+        <v>0.0007350515931196915</v>
       </c>
       <c r="T6">
-        <v>0.009265694901248711</v>
+        <v>0.001002070039109906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.668329</v>
       </c>
       <c r="I7">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J7">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4429316666666667</v>
+        <v>0.6048646666666667</v>
       </c>
       <c r="N7">
-        <v>1.328795</v>
+        <v>1.814594</v>
       </c>
       <c r="O7">
-        <v>0.008317672383016035</v>
+        <v>0.01175722020660108</v>
       </c>
       <c r="P7">
-        <v>0.009321131733311932</v>
+        <v>0.01310294128138554</v>
       </c>
       <c r="Q7">
-        <v>0.09867469261722223</v>
+        <v>0.1347495326028889</v>
       </c>
       <c r="R7">
-        <v>0.8880722335549999</v>
+        <v>1.212745793426</v>
       </c>
       <c r="S7">
-        <v>0.004360280841481636</v>
+        <v>0.003133401797991519</v>
       </c>
       <c r="T7">
-        <v>0.005151659681710821</v>
+        <v>0.00427165669954426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H8">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I8">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J8">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1957445</v>
+        <v>1.8204705</v>
       </c>
       <c r="N8">
-        <v>2.391489</v>
+        <v>3.640941</v>
       </c>
       <c r="O8">
-        <v>0.02245450427972709</v>
+        <v>0.03538588667457486</v>
       </c>
       <c r="P8">
-        <v>0.01677563808395307</v>
+        <v>0.02629074940840162</v>
       </c>
       <c r="Q8">
-        <v>0.0373195844265</v>
+        <v>0.241410165711</v>
       </c>
       <c r="R8">
-        <v>0.223917506559</v>
+        <v>1.448460994266</v>
       </c>
       <c r="S8">
-        <v>0.001649094257817057</v>
+        <v>0.005613637633323119</v>
       </c>
       <c r="T8">
-        <v>0.001298933517999442</v>
+        <v>0.005101916777386406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H9">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I9">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J9">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>103.562525</v>
       </c>
       <c r="O9">
-        <v>0.648255866486484</v>
+        <v>0.6710081768024303</v>
       </c>
       <c r="P9">
-        <v>0.7264626508674478</v>
+        <v>0.7478111820203425</v>
       </c>
       <c r="Q9">
-        <v>1.077406975363889</v>
+        <v>4.577762785627778</v>
       </c>
       <c r="R9">
-        <v>9.696662778274998</v>
+        <v>41.19986507065</v>
       </c>
       <c r="S9">
-        <v>0.04760893465745551</v>
+        <v>0.1064491272525365</v>
       </c>
       <c r="T9">
-        <v>0.0562498238257233</v>
+        <v>0.1451183591840678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,46 +1039,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H10">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I10">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J10">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2930826666666667</v>
+        <v>0.327471</v>
       </c>
       <c r="N10">
-        <v>0.879248</v>
+        <v>0.982413</v>
       </c>
       <c r="O10">
-        <v>0.005503705844334215</v>
+        <v>0.006365305944375207</v>
       </c>
       <c r="P10">
-        <v>0.006167683076961496</v>
+        <v>0.007093873259290952</v>
       </c>
       <c r="Q10">
-        <v>0.009147207720888888</v>
+        <v>0.04342549268200001</v>
       </c>
       <c r="R10">
-        <v>0.082324869488</v>
+        <v>0.390829434138</v>
       </c>
       <c r="S10">
-        <v>0.0004042008494839079</v>
+        <v>0.001009795835429333</v>
       </c>
       <c r="T10">
-        <v>0.0004775621789746781</v>
+        <v>0.00137661922206993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H11">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I11">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J11">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.0026265</v>
+        <v>14.0306905</v>
       </c>
       <c r="N11">
-        <v>32.005253</v>
+        <v>28.061381</v>
       </c>
       <c r="O11">
-        <v>0.3005082149498693</v>
+        <v>0.2727253333679585</v>
       </c>
       <c r="P11">
-        <v>0.2245080538164103</v>
+        <v>0.2026274899606125</v>
       </c>
       <c r="Q11">
-        <v>0.4994473072738332</v>
+        <v>1.860591159617667</v>
       </c>
       <c r="R11">
-        <v>2.996683843642999</v>
+        <v>11.163546957706</v>
       </c>
       <c r="S11">
-        <v>0.0220697979134682</v>
+        <v>0.04326530543192498</v>
       </c>
       <c r="T11">
-        <v>0.0173836032169716</v>
+        <v>0.03932138162099636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H12">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I12">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J12">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7966500000000001</v>
+        <v>0.1418926666666667</v>
       </c>
       <c r="N12">
-        <v>2.38995</v>
+        <v>0.425678</v>
       </c>
       <c r="O12">
-        <v>0.01496003605656943</v>
+        <v>0.002758077004060155</v>
       </c>
       <c r="P12">
-        <v>0.01676484242191524</v>
+        <v>0.003073764069966963</v>
       </c>
       <c r="Q12">
-        <v>0.02486371205</v>
+        <v>0.01881619733644445</v>
       </c>
       <c r="R12">
-        <v>0.22377340845</v>
+        <v>0.169345776028</v>
       </c>
       <c r="S12">
-        <v>0.001098688675122452</v>
+        <v>0.0004375429393074884</v>
       </c>
       <c r="T12">
-        <v>0.00129809761255133</v>
+        <v>0.0005964869329012172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H13">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I13">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J13">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4429316666666667</v>
+        <v>0.6048646666666667</v>
       </c>
       <c r="N13">
-        <v>1.328795</v>
+        <v>1.814594</v>
       </c>
       <c r="O13">
-        <v>0.008317672383016035</v>
+        <v>0.01175722020660108</v>
       </c>
       <c r="P13">
-        <v>0.009321131733311932</v>
+        <v>0.01310294128138554</v>
       </c>
       <c r="Q13">
-        <v>0.01382404496055555</v>
+        <v>0.08021029696044446</v>
       </c>
       <c r="R13">
-        <v>0.124416404645</v>
+        <v>0.7218926726440001</v>
       </c>
       <c r="S13">
-        <v>0.000610862996321822</v>
+        <v>0.001865172248529951</v>
       </c>
       <c r="T13">
-        <v>0.0007217329304253831</v>
+        <v>0.002542723865271288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H14">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I14">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J14">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1957445</v>
+        <v>1.8204705</v>
       </c>
       <c r="N14">
-        <v>2.391489</v>
+        <v>3.640941</v>
       </c>
       <c r="O14">
-        <v>0.02245450427972709</v>
+        <v>0.03538588667457486</v>
       </c>
       <c r="P14">
-        <v>0.01677563808395307</v>
+        <v>0.02629074940840162</v>
       </c>
       <c r="Q14">
-        <v>0.07852035620924999</v>
+        <v>0.8331874770284999</v>
       </c>
       <c r="R14">
-        <v>0.314081424837</v>
+        <v>3.332749908114</v>
       </c>
       <c r="S14">
-        <v>0.003469692134472892</v>
+        <v>0.01937454689567619</v>
       </c>
       <c r="T14">
-        <v>0.001821969601087468</v>
+        <v>0.01173895102343174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H15">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I15">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J15">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>103.562525</v>
       </c>
       <c r="O15">
-        <v>0.648255866486484</v>
+        <v>0.6710081768024303</v>
       </c>
       <c r="P15">
-        <v>0.7264626508674478</v>
+        <v>0.7478111820203425</v>
       </c>
       <c r="Q15">
-        <v>2.266862849304166</v>
+        <v>15.799395251475</v>
       </c>
       <c r="R15">
-        <v>13.601177095825</v>
+        <v>94.79637150885</v>
       </c>
       <c r="S15">
-        <v>0.100169135468503</v>
+        <v>0.3673916527343047</v>
       </c>
       <c r="T15">
-        <v>0.07889970322333113</v>
+        <v>0.3339014306570541</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H16">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I16">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J16">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2930826666666667</v>
+        <v>0.327471</v>
       </c>
       <c r="N16">
-        <v>0.879248</v>
+        <v>0.982413</v>
       </c>
       <c r="O16">
-        <v>0.005503705844334215</v>
+        <v>0.006365305944375207</v>
       </c>
       <c r="P16">
-        <v>0.006167683076961496</v>
+        <v>0.007093873259290952</v>
       </c>
       <c r="Q16">
-        <v>0.01924571293066666</v>
+        <v>0.149875944867</v>
       </c>
       <c r="R16">
-        <v>0.115474277584</v>
+        <v>0.899255669202</v>
       </c>
       <c r="S16">
-        <v>0.0008504380520116746</v>
+        <v>0.003485144223141204</v>
       </c>
       <c r="T16">
-        <v>0.0006698601280695644</v>
+        <v>0.003167449868531967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H17">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I17">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J17">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0026265</v>
+        <v>14.0306905</v>
       </c>
       <c r="N17">
-        <v>32.005253</v>
+        <v>28.061381</v>
       </c>
       <c r="O17">
-        <v>0.3005082149498693</v>
+        <v>0.2727253333679585</v>
       </c>
       <c r="P17">
-        <v>0.2245080538164103</v>
+        <v>0.2026274899606125</v>
       </c>
       <c r="Q17">
-        <v>1.05083647306225</v>
+        <v>6.421524335968499</v>
       </c>
       <c r="R17">
-        <v>4.203345892248999</v>
+        <v>25.686097343874</v>
       </c>
       <c r="S17">
-        <v>0.04643482558185086</v>
+        <v>0.1493230849228089</v>
       </c>
       <c r="T17">
-        <v>0.02438338543104882</v>
+        <v>0.09047418708758478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H18">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I18">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J18">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.7966500000000001</v>
+        <v>0.1418926666666667</v>
       </c>
       <c r="N18">
-        <v>2.38995</v>
+        <v>0.425678</v>
       </c>
       <c r="O18">
-        <v>0.01496003605656943</v>
+        <v>0.002758077004060155</v>
       </c>
       <c r="P18">
-        <v>0.01676484242191524</v>
+        <v>0.003073764069966963</v>
       </c>
       <c r="Q18">
-        <v>0.05231321722499999</v>
+        <v>0.064941010002</v>
       </c>
       <c r="R18">
-        <v>0.31387930335</v>
+        <v>0.389646060012</v>
       </c>
       <c r="S18">
-        <v>0.002311639517411813</v>
+        <v>0.001510107482920423</v>
       </c>
       <c r="T18">
-        <v>0.001820797105116936</v>
+        <v>0.001372451021247633</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H19">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I19">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J19">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4429316666666667</v>
+        <v>0.6048646666666667</v>
       </c>
       <c r="N19">
-        <v>1.328795</v>
+        <v>1.814594</v>
       </c>
       <c r="O19">
-        <v>0.008317672383016035</v>
+        <v>0.01175722020660108</v>
       </c>
       <c r="P19">
-        <v>0.009321131733311932</v>
+        <v>0.01310294128138554</v>
       </c>
       <c r="Q19">
-        <v>0.02908577228916666</v>
+        <v>0.276832646046</v>
       </c>
       <c r="R19">
-        <v>0.174514633735</v>
+        <v>1.660995876276</v>
       </c>
       <c r="S19">
-        <v>0.001285254935266106</v>
+        <v>0.006437335210799012</v>
       </c>
       <c r="T19">
-        <v>0.001012350086526437</v>
+        <v>0.005850528776328181</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H20">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I20">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J20">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1957445</v>
+        <v>1.8204705</v>
       </c>
       <c r="N20">
-        <v>2.391489</v>
+        <v>3.640941</v>
       </c>
       <c r="O20">
-        <v>0.02245450427972709</v>
+        <v>0.03538588667457486</v>
       </c>
       <c r="P20">
-        <v>0.01677563808395307</v>
+        <v>0.02629074940840162</v>
       </c>
       <c r="Q20">
-        <v>0.1259298320175</v>
+        <v>0.0302216307705</v>
       </c>
       <c r="R20">
-        <v>0.755578992105</v>
+        <v>0.181329784623</v>
       </c>
       <c r="S20">
-        <v>0.005564642963185379</v>
+        <v>0.0007027594854343138</v>
       </c>
       <c r="T20">
-        <v>0.004383073451574093</v>
+        <v>0.0006386982280297798</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H21">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I21">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J21">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>103.562525</v>
       </c>
       <c r="O21">
-        <v>0.648255866486484</v>
+        <v>0.6710081768024303</v>
       </c>
       <c r="P21">
-        <v>0.7264626508674478</v>
+        <v>0.7478111820203425</v>
       </c>
       <c r="Q21">
-        <v>3.635562440125</v>
+        <v>0.5730804925083333</v>
       </c>
       <c r="R21">
-        <v>32.720061961125</v>
+        <v>5.157724432575</v>
       </c>
       <c r="S21">
-        <v>0.1606498367031195</v>
+        <v>0.01332614229476725</v>
       </c>
       <c r="T21">
-        <v>0.1898073350558912</v>
+        <v>0.01816706208856166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H22">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I22">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J22">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2930826666666667</v>
+        <v>0.327471</v>
       </c>
       <c r="N22">
-        <v>0.879248</v>
+        <v>0.982413</v>
       </c>
       <c r="O22">
-        <v>0.005503705844334215</v>
+        <v>0.006365305944375207</v>
       </c>
       <c r="P22">
-        <v>0.006167683076961496</v>
+        <v>0.007093873259290952</v>
       </c>
       <c r="Q22">
-        <v>0.03086600104</v>
+        <v>0.005436346071000001</v>
       </c>
       <c r="R22">
-        <v>0.27779400936</v>
+        <v>0.048927114639</v>
       </c>
       <c r="S22">
-        <v>0.001363920468543466</v>
+        <v>0.0001264142162450093</v>
       </c>
       <c r="T22">
-        <v>0.001611468238469681</v>
+        <v>0.0001723360643013496</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H23">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I23">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J23">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.0026265</v>
+        <v>14.0306905</v>
       </c>
       <c r="N23">
-        <v>32.005253</v>
+        <v>28.061381</v>
       </c>
       <c r="O23">
-        <v>0.3005082149498693</v>
+        <v>0.2727253333679585</v>
       </c>
       <c r="P23">
-        <v>0.2245080538164103</v>
+        <v>0.2026274899606125</v>
       </c>
       <c r="Q23">
-        <v>1.6853166098475</v>
+        <v>0.2329234929905</v>
       </c>
       <c r="R23">
-        <v>10.111899659085</v>
+        <v>1.397540957943</v>
       </c>
       <c r="S23">
-        <v>0.07447151372697836</v>
+        <v>0.005416292566162492</v>
       </c>
       <c r="T23">
-        <v>0.05865859083408374</v>
+        <v>0.004922561041436411</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H24">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I24">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J24">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.7966500000000001</v>
+        <v>0.1418926666666667</v>
       </c>
       <c r="N24">
-        <v>2.38995</v>
+        <v>0.425678</v>
       </c>
       <c r="O24">
-        <v>0.01496003605656943</v>
+        <v>0.002758077004060155</v>
       </c>
       <c r="P24">
-        <v>0.01676484242191524</v>
+        <v>0.003073764069966963</v>
       </c>
       <c r="Q24">
-        <v>0.08389919475000002</v>
+        <v>0.002355560159333333</v>
       </c>
       <c r="R24">
-        <v>0.7550927527500001</v>
+        <v>0.021200041434</v>
       </c>
       <c r="S24">
-        <v>0.003707374624446638</v>
+        <v>5.477508007604039E-05</v>
       </c>
       <c r="T24">
-        <v>0.004380252802998259</v>
+        <v>7.467294425019813E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H25">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I25">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J25">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4429316666666667</v>
+        <v>0.6048646666666667</v>
       </c>
       <c r="N25">
-        <v>1.328795</v>
+        <v>1.814594</v>
       </c>
       <c r="O25">
-        <v>0.008317672383016035</v>
+        <v>0.01175722020660108</v>
       </c>
       <c r="P25">
-        <v>0.009321131733311932</v>
+        <v>0.01310294128138554</v>
       </c>
       <c r="Q25">
-        <v>0.046647348475</v>
+        <v>0.01004135833133333</v>
       </c>
       <c r="R25">
-        <v>0.419826136275</v>
+        <v>0.09037222498200001</v>
       </c>
       <c r="S25">
-        <v>0.002061273609946472</v>
+        <v>0.0002334969898738071</v>
       </c>
       <c r="T25">
-        <v>0.00243538903464929</v>
+        <v>0.0003183182513513596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.01873</v>
+      </c>
+      <c r="I26">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J26">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.8204705</v>
+      </c>
+      <c r="N26">
+        <v>3.640941</v>
+      </c>
+      <c r="O26">
+        <v>0.03538588667457486</v>
+      </c>
+      <c r="P26">
+        <v>0.02629074940840162</v>
+      </c>
+      <c r="Q26">
+        <v>0.011365804155</v>
+      </c>
+      <c r="R26">
+        <v>0.06819482492999999</v>
+      </c>
+      <c r="S26">
+        <v>0.0002642950256447342</v>
+      </c>
+      <c r="T26">
+        <v>0.0002402027550749508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.01873</v>
+      </c>
+      <c r="I27">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J27">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>34.52084166666666</v>
+      </c>
+      <c r="N27">
+        <v>103.562525</v>
+      </c>
+      <c r="O27">
+        <v>0.6710081768024303</v>
+      </c>
+      <c r="P27">
+        <v>0.7478111820203425</v>
+      </c>
+      <c r="Q27">
+        <v>0.2155251214722222</v>
+      </c>
+      <c r="R27">
+        <v>1.93972609325</v>
+      </c>
+      <c r="S27">
+        <v>0.005011719076782334</v>
+      </c>
+      <c r="T27">
+        <v>0.006832300723224702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.01873</v>
+      </c>
+      <c r="I28">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J28">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.327471</v>
+      </c>
+      <c r="N28">
+        <v>0.982413</v>
+      </c>
+      <c r="O28">
+        <v>0.006365305944375207</v>
+      </c>
+      <c r="P28">
+        <v>0.007093873259290952</v>
+      </c>
+      <c r="Q28">
+        <v>0.00204451061</v>
+      </c>
+      <c r="R28">
+        <v>0.01840059549</v>
+      </c>
+      <c r="S28">
+        <v>4.754208120532948E-05</v>
+      </c>
+      <c r="T28">
+        <v>6.481245074321382E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.01873</v>
+      </c>
+      <c r="I29">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J29">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>14.0306905</v>
+      </c>
+      <c r="N29">
+        <v>28.061381</v>
+      </c>
+      <c r="O29">
+        <v>0.2727253333679585</v>
+      </c>
+      <c r="P29">
+        <v>0.2026274899606125</v>
+      </c>
+      <c r="Q29">
+        <v>0.08759827768833332</v>
+      </c>
+      <c r="R29">
+        <v>0.5255896661299999</v>
+      </c>
+      <c r="S29">
+        <v>0.00203696885256357</v>
+      </c>
+      <c r="T29">
+        <v>0.001851285430719113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.01873</v>
+      </c>
+      <c r="I30">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J30">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.1418926666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.425678</v>
+      </c>
+      <c r="O30">
+        <v>0.002758077004060155</v>
+      </c>
+      <c r="P30">
+        <v>0.003073764069966963</v>
+      </c>
+      <c r="Q30">
+        <v>0.0008858832155555556</v>
+      </c>
+      <c r="R30">
+        <v>0.00797294894</v>
+      </c>
+      <c r="S30">
+        <v>2.059990863651259E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.808313245800877E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.01873</v>
+      </c>
+      <c r="I31">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J31">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.6048646666666667</v>
+      </c>
+      <c r="N31">
+        <v>1.814594</v>
+      </c>
+      <c r="O31">
+        <v>0.01175722020660108</v>
+      </c>
+      <c r="P31">
+        <v>0.01310294128138554</v>
+      </c>
+      <c r="Q31">
+        <v>0.003776371735555556</v>
+      </c>
+      <c r="R31">
+        <v>0.03398734562</v>
+      </c>
+      <c r="S31">
+        <v>8.781395940679088E-05</v>
+      </c>
+      <c r="T31">
+        <v>0.0001197136888904477</v>
       </c>
     </row>
   </sheetData>
